--- a/media/hello.xlsx
+++ b/media/hello.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,31 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>ПОНЕДЕЛЬНИК</t>
+  </si>
+  <si>
+    <t>ВТОРНИК</t>
+  </si>
+  <si>
+    <t>СРЕДА</t>
+  </si>
+  <si>
+    <t>ЧЕТВЕРГ</t>
+  </si>
+  <si>
+    <t>ПЯТНИЦА</t>
+  </si>
+  <si>
+    <t>СУББОТА</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28,21 +47,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -50,13 +63,215 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -358,60 +573,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:H21"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:H21"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+    <row r="1" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -420,7 +670,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -429,7 +680,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -438,70 +690,80 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -510,7 +772,233 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
+    <row r="22" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:5" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="9"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="2:5" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:5" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:5" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="8"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="9"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="2:5" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:5" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:5" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="8"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="9"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B54:B60"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>